--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value392.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value392.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.293331578100222</v>
+        <v>1.02871572971344</v>
       </c>
       <c r="B1">
-        <v>1.534909107681383</v>
+        <v>3.467015743255615</v>
       </c>
       <c r="C1">
-        <v>1.57251061111039</v>
+        <v>2.66535210609436</v>
       </c>
       <c r="D1">
-        <v>1.939522734950772</v>
+        <v>2.451266765594482</v>
       </c>
       <c r="E1">
-        <v>2.862120397646056</v>
+        <v>1.999853134155273</v>
       </c>
     </row>
   </sheetData>
